--- a/query/job.xlsx
+++ b/query/job.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbn/Desktop/research files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbn/Desktop/SQLRewriter/query/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729D401B-E97C-4142-9296-7CCBDF81A600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A048D24-7812-1746-9151-5B3428431301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="1260" windowWidth="33040" windowHeight="16940" xr2:uid="{603B9A9E-4DFE-214F-AF14-55792C66D0DB}"/>
+    <workbookView xWindow="3920" yWindow="500" windowWidth="34480" windowHeight="19460" xr2:uid="{603B9A9E-4DFE-214F-AF14-55792C66D0DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,241 +36,391 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
-  <si>
-    <t>nation</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>supplier</t>
-  </si>
-  <si>
-    <t>partsupp</t>
-  </si>
-  <si>
-    <t>customer</t>
-  </si>
-  <si>
-    <t>orders</t>
-  </si>
-  <si>
-    <t>lineitem</t>
-  </si>
-  <si>
-    <t>q2_inner</t>
-  </si>
-  <si>
-    <t>orderswithyear</t>
-  </si>
-  <si>
-    <t>revenue0</t>
-  </si>
-  <si>
-    <t>q15_inner</t>
-  </si>
-  <si>
-    <t>q17_inner</t>
-  </si>
-  <si>
-    <t>q18_inner</t>
-  </si>
-  <si>
-    <t>q20_inner1</t>
-  </si>
-  <si>
-    <t>q20_inner2</t>
-  </si>
-  <si>
-    <t>25;25</t>
-  </si>
-  <si>
-    <t>5;5</t>
-  </si>
-  <si>
-    <t>20000000;20000000</t>
-  </si>
-  <si>
-    <t>1000000;1000000</t>
-  </si>
-  <si>
-    <t>20000000;19983675</t>
-  </si>
-  <si>
-    <t>25;5</t>
-  </si>
-  <si>
-    <t>20000000;5</t>
-  </si>
-  <si>
-    <t>20000000;25</t>
-  </si>
-  <si>
-    <t>20000000;150</t>
-  </si>
-  <si>
-    <t>20000000;50</t>
-  </si>
-  <si>
-    <t>20000000;40</t>
-  </si>
-  <si>
-    <t>20000000;119899</t>
-  </si>
-  <si>
-    <t>20000000;3946180</t>
-  </si>
-  <si>
-    <t>1000000;25</t>
-  </si>
-  <si>
-    <t>1000000;999998</t>
-  </si>
-  <si>
-    <t>1000000;656829</t>
-  </si>
-  <si>
-    <t>1000000;997851</t>
-  </si>
-  <si>
-    <t>80000000;80000000</t>
-  </si>
-  <si>
-    <t>80000000;1000000</t>
-  </si>
-  <si>
-    <t>80000000;9999</t>
-  </si>
-  <si>
-    <t>80000000;99901</t>
-  </si>
-  <si>
-    <t>80000000;71820934</t>
-  </si>
-  <si>
-    <t>15000000;15000000</t>
-  </si>
-  <si>
-    <t>15000000;25</t>
-  </si>
-  <si>
-    <t>15000000;14997159</t>
-  </si>
-  <si>
-    <t>15000000;1099998</t>
-  </si>
-  <si>
-    <t>15000000;5</t>
-  </si>
-  <si>
-    <t>15000000;14669737</t>
-  </si>
-  <si>
-    <t>150000000;150000000</t>
-  </si>
-  <si>
-    <t>150000000;9999832</t>
-  </si>
-  <si>
-    <t>150000000;3</t>
-  </si>
-  <si>
-    <t>150000000;34700489</t>
-  </si>
-  <si>
-    <t>150000000;2406</t>
-  </si>
-  <si>
-    <t>150000000;5</t>
-  </si>
-  <si>
-    <t>150000000;100000</t>
-  </si>
-  <si>
-    <t>150000000;1</t>
-  </si>
-  <si>
-    <t>150000000;110994931</t>
-  </si>
-  <si>
-    <t>600037902;150000000</t>
-  </si>
-  <si>
-    <t>600037902;20000000</t>
-  </si>
-  <si>
-    <t>600037902;1000000</t>
-  </si>
-  <si>
-    <t>600037902;7</t>
-  </si>
-  <si>
-    <t>600037902;50</t>
-  </si>
-  <si>
-    <t>600037902;3786026</t>
-  </si>
-  <si>
-    <t>600037902;11</t>
-  </si>
-  <si>
-    <t>600037902;9</t>
-  </si>
-  <si>
-    <t>600037902;3</t>
-  </si>
-  <si>
-    <t>600037902;2</t>
-  </si>
-  <si>
-    <t>600037902;2526</t>
-  </si>
-  <si>
-    <t>600037902;2466</t>
-  </si>
-  <si>
-    <t>600037902;2555</t>
-  </si>
-  <si>
-    <t>600037902;4</t>
-  </si>
-  <si>
-    <t>600037902;142510152</t>
-  </si>
-  <si>
-    <t>11829402;11829402</t>
-  </si>
-  <si>
-    <t>11829402;99901</t>
-  </si>
-  <si>
-    <t>150000000;7</t>
-  </si>
-  <si>
-    <t>1000000;999942</t>
-  </si>
-  <si>
-    <t>1;1</t>
-  </si>
-  <si>
-    <t>20000000;12392</t>
-  </si>
-  <si>
-    <t>1063;1063</t>
-  </si>
-  <si>
-    <t>217222;217222</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="126">
+  <si>
+    <t>aka_name</t>
+  </si>
+  <si>
+    <t>aka_title</t>
+  </si>
+  <si>
+    <t>cast_info</t>
+  </si>
+  <si>
+    <t>char_name</t>
+  </si>
+  <si>
+    <t>comp_cast_type</t>
+  </si>
+  <si>
+    <t>company_name</t>
+  </si>
+  <si>
+    <t>company_type</t>
+  </si>
+  <si>
+    <t>complete_cast</t>
+  </si>
+  <si>
+    <t>info_type</t>
+  </si>
+  <si>
+    <t>keyword</t>
+  </si>
+  <si>
+    <t>kind_type</t>
+  </si>
+  <si>
+    <t>link_type</t>
+  </si>
+  <si>
+    <t>movie_companies</t>
+  </si>
+  <si>
+    <t>movie_info_idx</t>
+  </si>
+  <si>
+    <t>movie_keyword</t>
+  </si>
+  <si>
+    <t>movie_link</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>role_type</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>movie_info</t>
+  </si>
+  <si>
+    <t>person_info</t>
+  </si>
+  <si>
+    <t>9914773;9914773</t>
+  </si>
+  <si>
+    <t>9914773;6470442</t>
+  </si>
+  <si>
+    <t>9914773;810620</t>
+  </si>
+  <si>
+    <t>9914773;5</t>
+  </si>
+  <si>
+    <t>9914773;22017</t>
+  </si>
+  <si>
+    <t>9914773;21138</t>
+  </si>
+  <si>
+    <t>9914773;4312</t>
+  </si>
+  <si>
+    <t>9914773;810625</t>
+  </si>
+  <si>
+    <t>3976192;3976192</t>
+  </si>
+  <si>
+    <t>3976192;2261941</t>
+  </si>
+  <si>
+    <t>3976192;313625</t>
+  </si>
+  <si>
+    <t>3976192;12</t>
+  </si>
+  <si>
+    <t>3976192;66</t>
+  </si>
+  <si>
+    <t>3976192;128</t>
+  </si>
+  <si>
+    <t>3976192;20013</t>
+  </si>
+  <si>
+    <t>3976192;8294</t>
+  </si>
+  <si>
+    <t>3976192;40</t>
+  </si>
+  <si>
+    <t>3976192;162</t>
+  </si>
+  <si>
+    <t>3976192;3360</t>
+  </si>
+  <si>
+    <t>3976192;346289</t>
+  </si>
+  <si>
+    <t>398687784;398687784</t>
+  </si>
+  <si>
+    <t>398687784;44569910</t>
+  </si>
+  <si>
+    <t>398687784;25647611</t>
+  </si>
+  <si>
+    <t>398687784;34543729</t>
+  </si>
+  <si>
+    <t>398687784;715572</t>
+  </si>
+  <si>
+    <t>398687784;1094</t>
+  </si>
+  <si>
+    <t>398687784;121</t>
+  </si>
+  <si>
+    <t>34543729;34543729</t>
+  </si>
+  <si>
+    <t>34543729;3139746</t>
+  </si>
+  <si>
+    <t>34543729;6</t>
+  </si>
+  <si>
+    <t>34543729;0</t>
+  </si>
+  <si>
+    <t>34543729;23076</t>
+  </si>
+  <si>
+    <t>34543729;17198</t>
+  </si>
+  <si>
+    <t>34543729;3140339</t>
+  </si>
+  <si>
+    <t>44;44</t>
+  </si>
+  <si>
+    <t>44;4</t>
+  </si>
+  <si>
+    <t>2584967;2584967</t>
+  </si>
+  <si>
+    <t>2584967;224387</t>
+  </si>
+  <si>
+    <t>2584967;215</t>
+  </si>
+  <si>
+    <t>2584967;0</t>
+  </si>
+  <si>
+    <t>2584967;18486</t>
+  </si>
+  <si>
+    <t>2584967;17446</t>
+  </si>
+  <si>
+    <t>2584967;234997</t>
+  </si>
+  <si>
+    <t>1485946;1028654</t>
+  </si>
+  <si>
+    <t>1485946;1485946</t>
+  </si>
+  <si>
+    <t>1485946;22</t>
+  </si>
+  <si>
+    <t>1243;1243</t>
+  </si>
+  <si>
+    <t>1243;113</t>
+  </si>
+  <si>
+    <t>1475870;1475870</t>
+  </si>
+  <si>
+    <t>77;77</t>
+  </si>
+  <si>
+    <t>77;7</t>
+  </si>
+  <si>
+    <t>198;18</t>
+  </si>
+  <si>
+    <t>198;198</t>
+  </si>
+  <si>
+    <t>28700419;28700419</t>
+  </si>
+  <si>
+    <t>28700419;11959596</t>
+  </si>
+  <si>
+    <t>28700419;2584967</t>
+  </si>
+  <si>
+    <t>28700419;22</t>
+  </si>
+  <si>
+    <t>28700419;66454</t>
+  </si>
+  <si>
+    <t>15180385;5059175</t>
+  </si>
+  <si>
+    <t>15180385;15180385</t>
+  </si>
+  <si>
+    <t>15180385;55</t>
+  </si>
+  <si>
+    <t>15180385;146245</t>
+  </si>
+  <si>
+    <t>15180385;0</t>
+  </si>
+  <si>
+    <t>49763230;49763230</t>
+  </si>
+  <si>
+    <t>49763230;5244734</t>
+  </si>
+  <si>
+    <t>49763230;1475870</t>
+  </si>
+  <si>
+    <t>329967;329967</t>
+  </si>
+  <si>
+    <t>329967;70521</t>
+  </si>
+  <si>
+    <t>329967;177859</t>
+  </si>
+  <si>
+    <t>329967;176</t>
+  </si>
+  <si>
+    <t>45842401;45842401</t>
+  </si>
+  <si>
+    <t>45842401;179</t>
+  </si>
+  <si>
+    <t>45842401;0</t>
+  </si>
+  <si>
+    <t>45842401;2</t>
+  </si>
+  <si>
+    <t>45842401;23603</t>
+  </si>
+  <si>
+    <t>45842401;23261</t>
+  </si>
+  <si>
+    <t>45842401;4671</t>
+  </si>
+  <si>
+    <t>45842401;3587400</t>
+  </si>
+  <si>
+    <t>45842401;4167491</t>
+  </si>
+  <si>
+    <t>132;132</t>
+  </si>
+  <si>
+    <t>132;12</t>
+  </si>
+  <si>
+    <t>27811432;27811432</t>
+  </si>
+  <si>
+    <t>27811432;1483640</t>
+  </si>
+  <si>
+    <t>27811432;24</t>
+  </si>
+  <si>
+    <t>27811432;66</t>
+  </si>
+  <si>
+    <t>27811432;132</t>
+  </si>
+  <si>
+    <t>27811432;0</t>
+  </si>
+  <si>
+    <t>27811432;23259</t>
+  </si>
+  <si>
+    <t>27811432;566291</t>
+  </si>
+  <si>
+    <t>27811432;96</t>
+  </si>
+  <si>
+    <t>27811432;14906</t>
+  </si>
+  <si>
+    <t>27811432;1407</t>
+  </si>
+  <si>
+    <t>27811432;2528312</t>
+  </si>
+  <si>
+    <t>163192920;163192920</t>
+  </si>
+  <si>
+    <t>163192920;27157075</t>
+  </si>
+  <si>
+    <t>163192920;781</t>
+  </si>
+  <si>
+    <t>163192920;2720942</t>
+  </si>
+  <si>
+    <t>163192920;133612</t>
+  </si>
+  <si>
+    <t>32600304;32600304</t>
+  </si>
+  <si>
+    <t>32600304;6057931</t>
+  </si>
+  <si>
+    <t>32600304;242</t>
+  </si>
+  <si>
+    <t>32600304;1925067</t>
+  </si>
+  <si>
+    <t>32600304;49991</t>
+  </si>
+  <si>
+    <t>1475870;134170</t>
+  </si>
+  <si>
+    <t>1475870;15481</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -279,22 +429,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -320,10 +455,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5452DB01-2FD7-144C-9855-3D153D02606A}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -676,343 +809,437 @@
     <col min="28" max="28" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M8" t="s">
-        <v>63</v>
-      </c>
-      <c r="N8" t="s">
-        <v>64</v>
-      </c>
-      <c r="O8" t="s">
-        <v>65</v>
-      </c>
-      <c r="P8" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" t="s">
-        <v>56</v>
-      </c>
-      <c r="R8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
         <v>68</v>
       </c>
-      <c r="C9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" t="s">
+        <v>97</v>
+      </c>
+      <c r="J17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" t="s">
+        <v>109</v>
+      </c>
+      <c r="J19" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" t="s">
+        <v>111</v>
+      </c>
+      <c r="L19" t="s">
+        <v>112</v>
+      </c>
+      <c r="M19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>